--- a/src/main/resources/courses.xlsx
+++ b/src/main/resources/courses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -26,25 +26,49 @@
     <t>Price</t>
   </si>
   <si>
-    <t>23</t>
+    <t>Created date</t>
+  </si>
+  <si>
+    <t>G22</t>
   </si>
   <si>
     <t>IELTS</t>
   </si>
   <si>
-    <t>24</t>
+    <t>2023-06-14 15:54:31</t>
+  </si>
+  <si>
+    <t>TEACHERS</t>
+  </si>
+  <si>
+    <t>2023-06-14 15:15:50</t>
+  </si>
+  <si>
+    <t>SUPPORTS</t>
+  </si>
+  <si>
+    <t>2023-06-14 15:15:44</t>
+  </si>
+  <si>
+    <t>ADMINS</t>
+  </si>
+  <si>
+    <t>2023-06-14 15:15:38</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>2513</t>
+    <t>BEGINNER</t>
+  </si>
+  <si>
+    <t>2023-06-14 15:15:13</t>
+  </si>
+  <si>
+    <t>25113</t>
+  </si>
+  <si>
+    <t>2023-06-14 15:12:10</t>
   </si>
 </sst>
 </file>
@@ -105,16 +129,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.359375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.7265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="19.66796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -130,89 +155,110 @@
       <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>780000.0</v>
+        <v>142000.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>780000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>780000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>780000.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>780000.0</v>
       </c>
+      <c r="E6" t="s" s="0">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>780000.0</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
